--- a/experiment_results/best_case/ExamDB/1wise/0.5_best_case.xlsx
+++ b/experiment_results/best_case/ExamDB/1wise/0.5_best_case.xlsx
@@ -724,7 +724,7 @@
         <v>40</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>215</v>
@@ -884,7 +884,7 @@
         <v>81</v>
       </c>
       <c r="G11">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H11">
         <v>215</v>
@@ -1204,7 +1204,7 @@
         <v>40</v>
       </c>
       <c r="G21">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H21">
         <v>215</v>
@@ -1652,7 +1652,7 @@
         <v>40</v>
       </c>
       <c r="G35">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H35">
         <v>215</v>
@@ -1780,7 +1780,7 @@
         <v>40</v>
       </c>
       <c r="G39">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H39">
         <v>215</v>
@@ -2132,7 +2132,7 @@
         <v>40</v>
       </c>
       <c r="G50">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H50">
         <v>215</v>
@@ -2196,7 +2196,7 @@
         <v>40</v>
       </c>
       <c r="G52">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H52">
         <v>215</v>
@@ -2228,7 +2228,7 @@
         <v>40</v>
       </c>
       <c r="G53">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H53">
         <v>215</v>
@@ -2497,7 +2497,7 @@
         <v>40</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>215</v>
@@ -2657,7 +2657,7 @@
         <v>81</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>215</v>
@@ -2977,7 +2977,7 @@
         <v>40</v>
       </c>
       <c r="G21">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>215</v>
@@ -3137,7 +3137,7 @@
         <v>92</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <v>215</v>
@@ -3425,7 +3425,7 @@
         <v>40</v>
       </c>
       <c r="G35">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H35">
         <v>215</v>
@@ -3553,7 +3553,7 @@
         <v>40</v>
       </c>
       <c r="G39">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H39">
         <v>215</v>
@@ -3905,7 +3905,7 @@
         <v>40</v>
       </c>
       <c r="G50">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H50">
         <v>215</v>
@@ -3969,7 +3969,7 @@
         <v>40</v>
       </c>
       <c r="G52">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H52">
         <v>215</v>
@@ -4001,7 +4001,7 @@
         <v>40</v>
       </c>
       <c r="G53">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H53">
         <v>215</v>
@@ -4270,7 +4270,7 @@
         <v>40</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>215</v>
@@ -4430,7 +4430,7 @@
         <v>81</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>215</v>
@@ -4750,7 +4750,7 @@
         <v>40</v>
       </c>
       <c r="G21">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H21">
         <v>215</v>
@@ -5198,7 +5198,7 @@
         <v>40</v>
       </c>
       <c r="G35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H35">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>40</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>215</v>
@@ -5454,7 +5454,7 @@
         <v>92</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H43">
         <v>215</v>
@@ -5678,7 +5678,7 @@
         <v>40</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>215</v>
@@ -5742,7 +5742,7 @@
         <v>40</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>215</v>
@@ -5774,7 +5774,7 @@
         <v>40</v>
       </c>
       <c r="G53">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H53">
         <v>215</v>
@@ -6043,7 +6043,7 @@
         <v>40</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>215</v>
@@ -6203,7 +6203,7 @@
         <v>81</v>
       </c>
       <c r="G11">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H11">
         <v>215</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G21">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H21">
         <v>215</v>
@@ -6971,7 +6971,7 @@
         <v>40</v>
       </c>
       <c r="G35">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H35">
         <v>215</v>
@@ -7099,7 +7099,7 @@
         <v>40</v>
       </c>
       <c r="G39">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H39">
         <v>215</v>
@@ -7451,7 +7451,7 @@
         <v>40</v>
       </c>
       <c r="G50">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H50">
         <v>215</v>
@@ -7515,7 +7515,7 @@
         <v>40</v>
       </c>
       <c r="G52">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H52">
         <v>215</v>
@@ -7547,7 +7547,7 @@
         <v>40</v>
       </c>
       <c r="G53">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H53">
         <v>215</v>
@@ -7816,7 +7816,7 @@
         <v>40</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>215</v>
@@ -7976,7 +7976,7 @@
         <v>81</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>215</v>
@@ -8296,7 +8296,7 @@
         <v>40</v>
       </c>
       <c r="G21">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H21">
         <v>215</v>
@@ -8456,7 +8456,7 @@
         <v>92</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <v>215</v>
@@ -8744,7 +8744,7 @@
         <v>40</v>
       </c>
       <c r="G35">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H35">
         <v>215</v>
@@ -8872,7 +8872,7 @@
         <v>40</v>
       </c>
       <c r="G39">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H39">
         <v>215</v>
@@ -9224,7 +9224,7 @@
         <v>40</v>
       </c>
       <c r="G50">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H50">
         <v>215</v>
@@ -9288,7 +9288,7 @@
         <v>40</v>
       </c>
       <c r="G52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H52">
         <v>215</v>
@@ -9320,7 +9320,7 @@
         <v>40</v>
       </c>
       <c r="G53">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H53">
         <v>215</v>
